--- a/payment_links_excel.xlsx
+++ b/payment_links_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/PycharmProjects/EventTickets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEF2795-53B9-8248-AFBD-6EF7D6EFFA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2439A4F8-FEFE-384C-8CE0-235775C9B638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/payment_links_excel.xlsx
+++ b/payment_links_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anand/PycharmProjects/EventTickets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2439A4F8-FEFE-384C-8CE0-235775C9B638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49191A66-11CC-4A06-8E79-257FCD5A2FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>payment button id</t>
   </si>
@@ -113,9 +113,6 @@
     <t>pay_LQf9V4uHBjTjgA</t>
   </si>
   <si>
-    <t>9893358161</t>
-  </si>
-  <si>
     <t>Anand Lahoti</t>
   </si>
   <si>
@@ -144,6 +141,27 @@
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>Omdena Event</t>
+  </si>
+  <si>
+    <t>order_LQf8k4C4lj53423</t>
+  </si>
+  <si>
+    <t>order_LQf8k4C4lj5b327</t>
+  </si>
+  <si>
+    <t>21MIZ10035</t>
+  </si>
+  <si>
+    <t>Vaasu Bisht</t>
+  </si>
+  <si>
+    <t>Vansh Duggar</t>
+  </si>
+  <si>
+    <t>21MIM10039</t>
   </si>
 </sst>
 </file>
@@ -492,21 +510,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="13" max="13" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" customWidth="1"/>
+    <col min="13" max="13" width="37.453125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,12 +581,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -597,33 +619,33 @@
         <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <v>9893353361</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -644,25 +666,131 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>9310370781</v>
+      </c>
+      <c r="O3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>29</v>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4">
+        <v>9893323161</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5">
+        <v>9893768161</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -670,6 +798,8 @@
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" xr:uid="{F4967CD4-C552-0248-A2D9-EE0327A30741}"/>
     <hyperlink ref="M2" r:id="rId2" xr:uid="{74702A49-BBB6-E546-806F-74D67190EFD9}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{095370A4-B5E0-4116-947B-754E98685834}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{3BF5A3CD-2440-4292-8640-109C51CF6523}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
